--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
   <si>
     <t>Service</t>
   </si>
@@ -113,45 +113,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>10059598</t>
-  </si>
-  <si>
-    <t>10059600</t>
-  </si>
-  <si>
-    <t>10059603</t>
-  </si>
-  <si>
-    <t>10059610</t>
-  </si>
-  <si>
-    <t>10059622</t>
-  </si>
-  <si>
-    <t>10059630</t>
-  </si>
-  <si>
-    <t>10059858</t>
-  </si>
-  <si>
-    <t>10059863</t>
-  </si>
-  <si>
-    <t>10059864</t>
-  </si>
-  <si>
-    <t>10059887</t>
-  </si>
-  <si>
-    <t>10059897</t>
-  </si>
-  <si>
-    <t>794641595264</t>
-  </si>
-  <si>
-    <t>10059903</t>
-  </si>
-  <si>
     <t>NA Process Result</t>
   </si>
   <si>
@@ -159,6 +120,60 @@
   </si>
   <si>
     <t>NA Fail Log</t>
+  </si>
+  <si>
+    <t>10146166</t>
+  </si>
+  <si>
+    <t>10165094</t>
+  </si>
+  <si>
+    <t>10165106</t>
+  </si>
+  <si>
+    <t>10165179</t>
+  </si>
+  <si>
+    <t>10165231</t>
+  </si>
+  <si>
+    <t>10165275</t>
+  </si>
+  <si>
+    <t>10165292</t>
+  </si>
+  <si>
+    <t>10165324</t>
+  </si>
+  <si>
+    <t>10165370</t>
+  </si>
+  <si>
+    <t>10165451</t>
+  </si>
+  <si>
+    <t>794643740667</t>
+  </si>
+  <si>
+    <t>10165558</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10167505</t>
+  </si>
+  <si>
+    <t>10167521</t>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>Get TrackingNo</t>
+  </si>
+  <si>
+    <t>Process</t>
   </si>
 </sst>
 </file>
@@ -235,13 +250,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,9 +573,9 @@
     <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" style="7" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -577,16 +592,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -595,13 +610,15 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
@@ -611,13 +628,15 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
@@ -627,13 +646,15 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
@@ -643,13 +664,15 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
@@ -659,13 +682,15 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
@@ -675,13 +700,15 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
@@ -690,12 +717,16 @@
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
@@ -705,13 +736,15 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
@@ -721,13 +754,15 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
@@ -737,13 +772,15 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
@@ -753,13 +790,15 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
@@ -769,13 +808,15 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
@@ -785,18 +826,22 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,12 +850,16 @@
       <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
@@ -819,12 +868,16 @@
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
@@ -833,12 +886,16 @@
       <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
@@ -847,64 +904,84 @@
       <c r="E18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -913,9 +990,49 @@
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowHeight="7620" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" r:id="rId1"/>
+    <sheet name="Result" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="50">
   <si>
     <t>Service</t>
   </si>
@@ -180,6 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,32 +237,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -285,7 +286,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -302,10 +303,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -340,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -375,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -469,21 +470,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -500,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -552,15 +553,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -568,17 +569,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="40.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row ht="15.75" r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -613,10 +614,10 @@
         <v>45</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="3"/>
@@ -631,10 +632,10 @@
         <v>46</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="3"/>
@@ -649,10 +650,10 @@
         <v>32</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>44</v>
       </c>
       <c r="G4" s="3"/>
@@ -667,10 +668,10 @@
         <v>33</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="3"/>
@@ -685,10 +686,10 @@
         <v>34</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="3"/>
@@ -703,10 +704,10 @@
         <v>35</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="3"/>
@@ -721,10 +722,10 @@
         <v>36</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
       <c r="G8" s="3"/>
@@ -739,10 +740,10 @@
         <v>37</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="3"/>
@@ -757,10 +758,10 @@
         <v>38</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="3"/>
@@ -775,10 +776,10 @@
         <v>39</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="3"/>
@@ -793,10 +794,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3"/>
@@ -811,10 +812,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13" s="3"/>
@@ -829,10 +830,10 @@
         <v>43</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="3"/>
@@ -847,10 +848,10 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" s="3"/>
@@ -865,10 +866,10 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="3"/>
@@ -883,10 +884,10 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
         <v>44</v>
       </c>
       <c r="G17" s="3"/>
@@ -901,10 +902,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="3"/>
@@ -919,8 +920,10 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
         <v>44</v>
       </c>
       <c r="G19" s="3"/>
@@ -937,10 +940,10 @@
         <v>42</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="3"/>
@@ -955,8 +958,10 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
       </c>
       <c r="G21" s="3"/>
@@ -971,8 +976,10 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="3"/>
@@ -987,10 +994,10 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="3"/>
@@ -1005,8 +1012,12 @@
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="7"/>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
@@ -1017,8 +1028,12 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="7"/>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
@@ -1029,21 +1044,25 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="7"/>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="3" type="cellIs">
       <formula>"FAIL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule dxfId="0" operator="equal" priority="4" type="cellIs">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Local\NetAgentOrderProcessing\NAOrderProcessing\NetAgent\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView windowHeight="7620" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Result" r:id="rId1" sheetId="1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="85">
   <si>
     <t>Service</t>
   </si>
@@ -110,76 +105,198 @@
     <t>PASS</t>
   </si>
   <si>
+    <t>NA Process Result</t>
+  </si>
+  <si>
+    <t>Connect OP Result</t>
+  </si>
+  <si>
+    <t>NA Fail Log</t>
+  </si>
+  <si>
+    <t>10146166</t>
+  </si>
+  <si>
+    <t>10165094</t>
+  </si>
+  <si>
+    <t>10165106</t>
+  </si>
+  <si>
+    <t>10165179</t>
+  </si>
+  <si>
+    <t>10165231</t>
+  </si>
+  <si>
+    <t>10165275</t>
+  </si>
+  <si>
+    <t>10165292</t>
+  </si>
+  <si>
+    <t>10165370</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>RTE</t>
+  </si>
+  <si>
+    <t>14624888</t>
+  </si>
+  <si>
+    <t>14624906</t>
+  </si>
+  <si>
+    <t>14624920</t>
+  </si>
+  <si>
+    <t>14624927</t>
+  </si>
+  <si>
+    <t>14624932</t>
+  </si>
+  <si>
+    <t>Pickup 1</t>
+  </si>
+  <si>
+    <t>Merge LOC and generate RW Tracking NO</t>
+  </si>
+  <si>
+    <t>RW tracking no</t>
+  </si>
+  <si>
+    <t>14642862</t>
+  </si>
+  <si>
+    <t>RT00005800</t>
+  </si>
+  <si>
+    <t>151867082</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblBOLNumValue_1"}
+  (Session info: chrome=117.0.5938.92)
+For documentation on this error, please visit: https://selenium.dev/exceptions/#no_such_element
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [03b28784b968b40ea2bea38e8052bac3, findElement {using=id, value=lblBOLNumValue_1}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\PARTH~1.SHA\AppDat...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:60278}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:60278/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 03b28784b968b40ea2bea38e8052bac3</t>
+  </si>
+  <si>
+    <t>Pickup 2 -&gt; just change condition in loop for 2 order creation
+Note: Current order processiong is set for 1 job only so , config script accordingly)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>14642930</t>
+  </si>
+  <si>
+    <t>14642949</t>
+  </si>
+  <si>
+    <t>RT00005801</t>
+  </si>
+  <si>
+    <t>151867875</t>
+  </si>
+  <si>
+    <t>14643113</t>
+  </si>
+  <si>
+    <t>RT00005802</t>
+  </si>
+  <si>
+    <t>151869488</t>
+  </si>
+  <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>NA Process Result</t>
-  </si>
-  <si>
-    <t>Connect OP Result</t>
-  </si>
-  <si>
-    <t>NA Fail Log</t>
-  </si>
-  <si>
-    <t>10146166</t>
-  </si>
-  <si>
-    <t>10165094</t>
-  </si>
-  <si>
-    <t>10165106</t>
-  </si>
-  <si>
-    <t>10165179</t>
-  </si>
-  <si>
-    <t>10165231</t>
-  </si>
-  <si>
-    <t>10165275</t>
-  </si>
-  <si>
-    <t>10165292</t>
-  </si>
-  <si>
-    <t>10165324</t>
-  </si>
-  <si>
-    <t>10165370</t>
-  </si>
-  <si>
-    <t>10165451</t>
-  </si>
-  <si>
-    <t>794643740667</t>
-  </si>
-  <si>
-    <t>10165558</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>10167505</t>
-  </si>
-  <si>
-    <t>10167521</t>
-  </si>
-  <si>
-    <t>RTE</t>
-  </si>
-  <si>
-    <t>Get TrackingNo</t>
-  </si>
-  <si>
-    <t>Process</t>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.cancel_job.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>14643231</t>
+  </si>
+  <si>
+    <t>RT00005803</t>
+  </si>
+  <si>
+    <t>151870729</t>
+  </si>
+  <si>
+    <t>14643270</t>
+  </si>
+  <si>
+    <t>RT00005804</t>
+  </si>
+  <si>
+    <t>151871128</t>
+  </si>
+  <si>
+    <t>14643388</t>
+  </si>
+  <si>
+    <t>RT00005805</t>
+  </si>
+  <si>
+    <t>151872332</t>
+  </si>
+  <si>
+    <t>Element must be set</t>
+  </si>
+  <si>
+    <t>14643436</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;div class="col-lg-2 col-md-2 col-sm-2 memopartActive" style="padding-top:3px; border:1px solid #696969; padding-bottom:5px; border-right:0px; height:25px;" id="idJobOverview" ng-click="BackToJobOverview()"&gt;...&lt;/div&gt; is not clickable at point (126, 240). Other element would receive the click: &lt;div id="loaderDiv" loader="" style="display: block;"&gt;...&lt;/div&gt;
+  (Session info: chrome=117.0.5938.92)
+Build info: version: '4.9.0', revision: 'd7057100a6'
+System info: os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [ed2545c78e69296efcec7c00c040ef3e, clickElement {id=66201FAFA4ED27F11C585825A8F90A0C_element_1018}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.92, chrome: {chromedriverVersion: 117.0.5938.92 (67649b10b92b..., userDataDir: C:\Users\PARTH~1.SHA\AppDat...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63172}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: WINDOWS, proxy: Proxy(), se:cdp: ws://localhost:63172/devtoo..., se:cdpVersion: 117.0.5938.92, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on WINDOWS (ed2545c78e69296efcec7c00c040ef3e)] -&gt; id: idJobOverview]
+Session ID: ed2545c78e69296efcec7c00c040ef3e</t>
+  </si>
+  <si>
+    <t>14643456</t>
+  </si>
+  <si>
+    <t>RT00005806</t>
+  </si>
+  <si>
+    <t>151872952</t>
+  </si>
+  <si>
+    <t>14643523</t>
+  </si>
+  <si>
+    <t>RT00005807</t>
+  </si>
+  <si>
+    <t>151873616</t>
+  </si>
+  <si>
+    <t>14643635</t>
+  </si>
+  <si>
+    <t>RT00005808</t>
+  </si>
+  <si>
+    <t>151874761</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -212,7 +329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -235,11 +352,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -257,8 +385,14 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -561,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,16 +727,16 @@
         <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,15 +744,15 @@
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
+      <c r="C2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -628,15 +762,15 @@
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
+      <c r="C3" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -647,14 +781,14 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -665,14 +799,14 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -683,14 +817,14 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -701,14 +835,14 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -719,14 +853,14 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -737,14 +871,14 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -755,14 +889,14 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -772,15 +906,15 @@
         <v>16</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
+      <c r="C11" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -791,14 +925,14 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -808,15 +942,15 @@
         <v>18</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="3" t="s">
-        <v>41</v>
+      <c r="C13" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -826,22 +960,22 @@
         <v>15</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -849,17 +983,17 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -867,17 +1001,17 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>24</v>
@@ -885,17 +1019,17 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
@@ -903,17 +1037,17 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>25</v>
@@ -921,37 +1055,34 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -959,17 +1090,17 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
@@ -977,17 +1108,17 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
@@ -995,44 +1126,48 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row ht="105" r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1040,18 +1175,46 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
+    </row>
+    <row ht="30" r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="102">
   <si>
     <t>Service</t>
   </si>
@@ -291,6 +291,89 @@
   </si>
   <si>
     <t>151874761</t>
+  </si>
+  <si>
+    <t>14699021</t>
+  </si>
+  <si>
+    <t>14699028</t>
+  </si>
+  <si>
+    <t>14699039</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.isDisplayed()" because "element" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.149)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.149, chrome: {chromedriverVersion: 117.0.5938.149 (e3344ddefa1..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55020}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: dd5ca1e3166381a142b92c679b7fff0c
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: By.id: idJobOverview (tried for 60 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>14699099</t>
+  </si>
+  <si>
+    <t>14699102</t>
+  </si>
+  <si>
+    <t>14699105</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.149)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.149, chrome: {chromedriverVersion: 117.0.5938.149 (e3344ddefa1..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62539}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a81fe3c30db9708ab561155812cad2df
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>14699123</t>
+  </si>
+  <si>
+    <t>RT00005906</t>
+  </si>
+  <si>
+    <t>152472050</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#aNGLLogo"}
+  (Session info: headless chrome=117.0.5938.149)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.149, chrome: {chromedriverVersion: 117.0.5938.149 (e3344ddefa1..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62539}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a81fe3c30db9708ab561155812cad2df
+*** Element info: {Using=id, value=aNGLLogo}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: headless chrome=117.0.5938.149)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 117.0.5938.149, chrome: {chromedriverVersion: 117.0.5938.149 (e3344ddefa1..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62631}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 42f4784c24abe7aa08ca6b796ec528f6
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>14699197</t>
+  </si>
+  <si>
+    <t>14699198</t>
   </si>
 </sst>
 </file>
@@ -695,7 +778,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
@@ -745,7 +828,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -763,7 +846,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -907,7 +990,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -943,11 +1026,11 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>39</v>
@@ -961,11 +1044,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -1019,7 +1102,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -1037,10 +1120,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1055,7 +1138,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F19" t="s">
         <v>39</v>
@@ -1072,7 +1155,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
         <v>39</v>
@@ -1142,7 +1225,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1180,7 +1263,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1193,10 +1276,10 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -1207,10 +1290,10 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="110">
   <si>
     <t>Service</t>
   </si>
@@ -374,6 +374,30 @@
   </si>
   <si>
     <t>14699198</t>
+  </si>
+  <si>
+    <t>14884476</t>
+  </si>
+  <si>
+    <t>14884490</t>
+  </si>
+  <si>
+    <t>14884515</t>
+  </si>
+  <si>
+    <t>14884523</t>
+  </si>
+  <si>
+    <t>14884530</t>
+  </si>
+  <si>
+    <t>14884559</t>
+  </si>
+  <si>
+    <t>RT00006108</t>
+  </si>
+  <si>
+    <t>154487441</t>
   </si>
 </sst>
 </file>
@@ -823,16 +847,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -841,16 +865,16 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -859,8 +883,8 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
+      <c r="A4" t="s">
+        <v>39</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="3" t="s">
@@ -877,8 +901,8 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+      <c r="A5" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="3" t="s">
@@ -895,8 +919,8 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+      <c r="A6" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3" t="s">
@@ -913,8 +937,8 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
+      <c r="A7" t="s">
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3" t="s">
@@ -931,8 +955,8 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
+      <c r="A8" t="s">
+        <v>39</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="3" t="s">
@@ -949,8 +973,8 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
+      <c r="A9" t="s">
+        <v>39</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="3" t="s">
@@ -967,8 +991,8 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
+      <c r="A10" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="3" t="s">
@@ -985,16 +1009,16 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
+      <c r="A11" t="s">
+        <v>39</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -1003,8 +1027,8 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
+      <c r="A12" t="s">
+        <v>39</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
@@ -1021,12 +1045,12 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>39</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1039,12 +1063,12 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
+      <c r="A14" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1057,7 +1081,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1066,7 +1090,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>39</v>
@@ -1075,7 +1099,7 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1093,7 +1117,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1111,7 +1135,7 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1129,7 +1153,7 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1147,12 +1171,13 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C20"/>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
         <v>27</v>
@@ -1164,7 +1189,7 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1182,7 +1207,7 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1200,7 +1225,7 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1218,14 +1243,14 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
+      <c r="A24" t="s">
+        <v>39</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1238,7 +1263,9 @@
       <c r="H24" s="3"/>
     </row>
     <row ht="105" r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
       <c r="B25" s="8" t="s">
         <v>53</v>
       </c>
@@ -1256,14 +1283,16 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -1272,28 +1301,34 @@
       <c r="H26" s="3"/>
     </row>
     <row ht="30" r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
       <c r="B27" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
       <c r="B28" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
         <v>39</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="119">
   <si>
     <t>Service</t>
   </si>
@@ -398,6 +398,33 @@
   </si>
   <si>
     <t>154487441</t>
+  </si>
+  <si>
+    <t>14944406</t>
+  </si>
+  <si>
+    <t>14944411</t>
+  </si>
+  <si>
+    <t>14944445</t>
+  </si>
+  <si>
+    <t>14944460</t>
+  </si>
+  <si>
+    <t>14944465</t>
+  </si>
+  <si>
+    <t>14944486</t>
+  </si>
+  <si>
+    <t>RT00006190</t>
+  </si>
+  <si>
+    <t>155151167</t>
+  </si>
+  <si>
+    <t>Must provide a location for a move action.</t>
   </si>
 </sst>
 </file>
@@ -852,7 +879,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -870,7 +897,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1014,7 +1041,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1050,7 +1077,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1068,7 +1095,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1250,7 +1277,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1292,10 +1319,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1308,7 +1335,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1325,7 +1352,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="129">
   <si>
     <t>Service</t>
   </si>
@@ -425,6 +425,36 @@
   </si>
   <si>
     <t>Must provide a location for a move action.</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OrderProcessNonSPL.LOC.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.getText()" because the return value of "connect_OCBaseMethods.TCAcknowledge.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>15031857</t>
+  </si>
+  <si>
+    <t>15031878</t>
+  </si>
+  <si>
+    <t>15031890</t>
+  </si>
+  <si>
+    <t>15031957</t>
+  </si>
+  <si>
+    <t>15031974</t>
+  </si>
+  <si>
+    <t>15032002</t>
+  </si>
+  <si>
+    <t>RT00006397</t>
+  </si>
+  <si>
+    <t>156139881</t>
   </si>
 </sst>
 </file>
@@ -879,14 +909,14 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -897,14 +927,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1041,7 +1071,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1077,7 +1107,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1095,7 +1125,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1277,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1319,10 +1349,10 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1335,7 +1365,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1352,7 +1382,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="144">
   <si>
     <t>Service</t>
   </si>
@@ -455,6 +455,72 @@
   </si>
   <si>
     <t>156139881</t>
+  </si>
+  <si>
+    <t>15114894</t>
+  </si>
+  <si>
+    <t>15114934</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to no longer be visible: By.xpath: //*[@class='ajax-loadernew'] (tried for 7 second(s) with 500 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50850}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 10573221fe6af0f09ad1c5ed7a45ad53</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.85)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50850}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 10573221fe6af0f09ad1c5ed7a45ad53
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>15115072</t>
+  </si>
+  <si>
+    <t>15115109</t>
+  </si>
+  <si>
+    <t>Cannot invoke "org.openqa.selenium.WebElement.clear()" because the return value of "connect_OCBaseMethods.OrderCreation.isElementPresent(String)" is null</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=121.0.6167.85)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.140.8', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.1'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 121.0.6167.85, chrome: {chromedriverVersion: 121.0.6167.85 (3f98d690ad7e..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:56096}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: bb3b8de3a260aa3e5dcc34dea974598d
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>15115182</t>
+  </si>
+  <si>
+    <t>15115215</t>
+  </si>
+  <si>
+    <t>15115228</t>
+  </si>
+  <si>
+    <t>15115233</t>
+  </si>
+  <si>
+    <t>15115240</t>
+  </si>
+  <si>
+    <t>RT00006479</t>
+  </si>
+  <si>
+    <t>157066809</t>
   </si>
 </sst>
 </file>
@@ -909,7 +975,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -927,14 +993,14 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1071,14 +1137,14 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1107,14 +1173,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1125,14 +1191,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1294,7 +1360,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1307,7 +1373,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1365,7 +1431,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1382,7 +1448,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="152">
   <si>
     <t>Service</t>
   </si>
@@ -521,6 +521,30 @@
   </si>
   <si>
     <t>157066809</t>
+  </si>
+  <si>
+    <t>15198055</t>
+  </si>
+  <si>
+    <t>15198059</t>
+  </si>
+  <si>
+    <t>15198112</t>
+  </si>
+  <si>
+    <t>15198128</t>
+  </si>
+  <si>
+    <t>15198132</t>
+  </si>
+  <si>
+    <t>15198163</t>
+  </si>
+  <si>
+    <t>RT00006537</t>
+  </si>
+  <si>
+    <t>157996371</t>
   </si>
 </sst>
 </file>
@@ -975,7 +999,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -993,7 +1017,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1137,7 +1161,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1173,7 +1197,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1191,7 +1215,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1373,7 +1397,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1431,7 +1455,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1448,7 +1472,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="166">
   <si>
     <t>Service</t>
   </si>
@@ -545,6 +545,48 @@
   </si>
   <si>
     <t>157996371</t>
+  </si>
+  <si>
+    <t>15282511</t>
+  </si>
+  <si>
+    <t>15282520</t>
+  </si>
+  <si>
+    <t>15282548</t>
+  </si>
+  <si>
+    <t>15282561</t>
+  </si>
+  <si>
+    <t>15282569</t>
+  </si>
+  <si>
+    <t>15282578</t>
+  </si>
+  <si>
+    <t>RT00006563</t>
+  </si>
+  <si>
+    <t>158940348</t>
+  </si>
+  <si>
+    <t>15282689</t>
+  </si>
+  <si>
+    <t>RT00006567</t>
+  </si>
+  <si>
+    <t>158941644</t>
+  </si>
+  <si>
+    <t>15282715</t>
+  </si>
+  <si>
+    <t>RT00006568</t>
+  </si>
+  <si>
+    <t>158941792</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1041,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1017,7 +1059,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1161,7 +1203,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1197,7 +1239,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1215,7 +1257,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1397,7 +1439,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1455,7 +1497,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1472,7 +1514,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="169">
   <si>
     <t>Service</t>
   </si>
@@ -587,6 +587,23 @@
   </si>
   <si>
     <t>158941792</t>
+  </si>
+  <si>
+    <t>15287826</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=122.0.6261.129)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL92', ip: '10.212.130.91', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '20'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 122.0.6261.129, chrome: {chromedriverVersion: 122.0.6261.128 (f18a44fedeb..., userDataDir: C:\Users\RPRAJA~1\AppData\L...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:59519}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 20ab763d4621b4c19b079e63bf171860
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>15287848</t>
   </si>
 </sst>
 </file>
@@ -1239,14 +1256,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1257,14 +1274,14 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="178">
   <si>
     <t>Service</t>
   </si>
@@ -604,6 +604,49 @@
   </si>
   <si>
     <t>15287848</t>
+  </si>
+  <si>
+    <t>15431025</t>
+  </si>
+  <si>
+    <t>15431027</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome-headless-shell=124.0.6367.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL30', ip: '10.100.111.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome-headless-shell, browserVersion: 124.0.6367.62, chrome: {chromedriverVersion: 124.0.6367.78 (a087f2dd364d..., userDataDir: C:\Users\PARTH~1.SHA\AppDat...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:54757}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7595c8134e3ac26d945b47a4be539aad
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>15431104</t>
+  </si>
+  <si>
+    <t>RT00006665</t>
+  </si>
+  <si>
+    <t>160628670</t>
+  </si>
+  <si>
+    <t>15431275</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"#lblServiceID"}
+  (Session info: chrome=124.0.6367.62)
+For documentation on this error, please visit: https://www.seleniumhq.org/exceptions/no_such_element.html
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'
+System info: host: 'SIPL30', ip: '10.100.111.30', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '19.0.2'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 124.0.6367.62, chrome: {chromedriverVersion: 124.0.6367.78 (a087f2dd364d..., userDataDir: C:\Users\PARTH~1.SHA\AppDat...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:57094}, javascriptEnabled: true, networkConnectionEnabled: false, pageLoadStrategy: normal, platform: WINDOWS, platformName: WINDOWS, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7ec2368bf4d09dbd5ac05b819908f030
+*** Element info: {Using=id, value=lblServiceID}</t>
+  </si>
+  <si>
+    <t>15431340</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1119,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1220,7 +1263,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1256,14 +1299,14 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1274,11 +1317,11 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
         <v>88</v>
@@ -1456,7 +1499,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1514,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1531,7 +1574,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="194">
   <si>
     <t>Service</t>
   </si>
@@ -647,6 +647,54 @@
   </si>
   <si>
     <t>15431340</t>
+  </si>
+  <si>
+    <t>15504752</t>
+  </si>
+  <si>
+    <t>15504761</t>
+  </si>
+  <si>
+    <t>15504779</t>
+  </si>
+  <si>
+    <t>15504791</t>
+  </si>
+  <si>
+    <t>15504800</t>
+  </si>
+  <si>
+    <t>15504805</t>
+  </si>
+  <si>
+    <t>RT00006729</t>
+  </si>
+  <si>
+    <t>161468572</t>
+  </si>
+  <si>
+    <t>15534994</t>
+  </si>
+  <si>
+    <t>15535001</t>
+  </si>
+  <si>
+    <t>15535034</t>
+  </si>
+  <si>
+    <t>15535037</t>
+  </si>
+  <si>
+    <t>15535054</t>
+  </si>
+  <si>
+    <t>15535072</t>
+  </si>
+  <si>
+    <t>RT00006734</t>
+  </si>
+  <si>
+    <t>161812533</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1149,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1119,7 +1167,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1263,7 +1311,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1299,7 +1347,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1317,7 +1365,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1499,7 +1547,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1557,7 +1605,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1574,7 +1622,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>

--- a/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
+++ b/NetAgent/src/main/resources/NA OCP Result_Prod.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1842" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="202">
   <si>
     <t>Service</t>
   </si>
@@ -695,6 +695,30 @@
   </si>
   <si>
     <t>161812533</t>
+  </si>
+  <si>
+    <t>15575256</t>
+  </si>
+  <si>
+    <t>15575267</t>
+  </si>
+  <si>
+    <t>15575292</t>
+  </si>
+  <si>
+    <t>15575354</t>
+  </si>
+  <si>
+    <t>15575363</t>
+  </si>
+  <si>
+    <t>15575373</t>
+  </si>
+  <si>
+    <t>RT00006744</t>
+  </si>
+  <si>
+    <t>162272468</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1173,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
@@ -1167,7 +1191,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
@@ -1311,7 +1335,7 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
@@ -1347,7 +1371,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
@@ -1365,7 +1389,7 @@
       </c>
       <c r="B14" s="1"/>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
@@ -1547,7 +1571,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" t="s">
@@ -1605,7 +1629,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
         <v>27</v>
@@ -1622,7 +1646,7 @@
         <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="E28" t="s">
         <v>27</v>
